--- a/jser200/resources/url.xlsx
+++ b/jser200/resources/url.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$C$47</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>月</t>
   </si>
@@ -75,6 +76,12 @@
   </si>
   <si>
     <t>GitHubリリース数</t>
+  </si>
+  <si>
+    <t>行ラベル</t>
+  </si>
+  <si>
+    <t>合計 : 紹介URL数2</t>
   </si>
 </sst>
 </file>
@@ -142,14 +149,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -166,15 +177,68 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -530,7 +594,7 @@
                   <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,7 +907,7 @@
                   <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.0</c:v>
+                  <c:v>163.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,11 +924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2147135944"/>
-        <c:axId val="-2147210008"/>
+        <c:axId val="2078392232"/>
+        <c:axId val="2078389480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2147135944"/>
+        <c:axId val="2078392232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -874,14 +938,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147210008"/>
+        <c:crossAx val="2078389480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2147210008"/>
+        <c:axId val="2078389480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147135944"/>
+        <c:crossAx val="2078392232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,7 +1153,7 @@
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,7 +1313,7 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,11 +1328,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2066099352"/>
-        <c:axId val="-2066068520"/>
+        <c:axId val="2078310264"/>
+        <c:axId val="2078306744"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-2066099352"/>
+        <c:axId val="2078310264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,14 +1342,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066068520"/>
+        <c:crossAx val="2078306744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2066068520"/>
+        <c:axId val="2078306744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066099352"/>
+        <c:crossAx val="2078310264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,7 +1598,43 @@
       </sharedItems>
     </cacheField>
     <cacheField name="紹介URL数" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="151"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="151" count="35">
+        <n v="113"/>
+        <n v="97"/>
+        <n v="58"/>
+        <n v="53"/>
+        <n v="71"/>
+        <n v="105"/>
+        <n v="93"/>
+        <n v="86"/>
+        <n v="74"/>
+        <n v="79"/>
+        <n v="104"/>
+        <n v="103"/>
+        <n v="108"/>
+        <n v="87"/>
+        <n v="110"/>
+        <n v="100"/>
+        <n v="107"/>
+        <n v="89"/>
+        <n v="128"/>
+        <n v="106"/>
+        <n v="115"/>
+        <n v="139"/>
+        <n v="135"/>
+        <n v="130"/>
+        <n v="136"/>
+        <n v="111"/>
+        <n v="127"/>
+        <n v="142"/>
+        <n v="132"/>
+        <n v="150"/>
+        <n v="119"/>
+        <n v="145"/>
+        <n v="133"/>
+        <n v="151"/>
+        <n v="2"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1550,238 +1650,238 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="113"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="97"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="58"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="53"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="71"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
-    <n v="105"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="6"/>
     <x v="6"/>
-    <n v="93"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="7"/>
     <x v="7"/>
-    <n v="86"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="8"/>
     <x v="8"/>
-    <n v="74"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="9"/>
     <x v="9"/>
-    <n v="79"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="10"/>
     <x v="5"/>
-    <n v="97"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="11"/>
     <x v="10"/>
-    <n v="104"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="12"/>
     <x v="11"/>
-    <n v="93"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="13"/>
     <x v="12"/>
-    <n v="97"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="14"/>
     <x v="10"/>
-    <n v="103"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="15"/>
     <x v="13"/>
-    <n v="108"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="16"/>
     <x v="14"/>
-    <n v="87"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="17"/>
     <x v="15"/>
-    <n v="103"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="18"/>
     <x v="16"/>
-    <n v="104"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="19"/>
     <x v="17"/>
-    <n v="110"/>
+    <x v="14"/>
   </r>
   <r>
     <x v="20"/>
     <x v="15"/>
-    <n v="104"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="21"/>
     <x v="16"/>
-    <n v="100"/>
+    <x v="15"/>
   </r>
   <r>
     <x v="22"/>
     <x v="18"/>
-    <n v="97"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="23"/>
     <x v="17"/>
-    <n v="107"/>
+    <x v="16"/>
   </r>
   <r>
     <x v="24"/>
     <x v="0"/>
-    <n v="93"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="25"/>
     <x v="19"/>
-    <n v="89"/>
+    <x v="17"/>
   </r>
   <r>
     <x v="26"/>
     <x v="20"/>
-    <n v="128"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="27"/>
     <x v="15"/>
-    <n v="106"/>
+    <x v="19"/>
   </r>
   <r>
     <x v="28"/>
     <x v="21"/>
-    <n v="115"/>
+    <x v="20"/>
   </r>
   <r>
     <x v="29"/>
     <x v="22"/>
-    <n v="139"/>
+    <x v="21"/>
   </r>
   <r>
     <x v="30"/>
     <x v="23"/>
-    <n v="135"/>
+    <x v="22"/>
   </r>
   <r>
     <x v="31"/>
     <x v="24"/>
-    <n v="130"/>
+    <x v="23"/>
   </r>
   <r>
     <x v="32"/>
     <x v="25"/>
-    <n v="136"/>
+    <x v="24"/>
   </r>
   <r>
     <x v="33"/>
     <x v="13"/>
-    <n v="111"/>
+    <x v="25"/>
   </r>
   <r>
     <x v="34"/>
     <x v="19"/>
-    <n v="87"/>
+    <x v="13"/>
   </r>
   <r>
     <x v="35"/>
     <x v="26"/>
-    <n v="127"/>
+    <x v="26"/>
   </r>
   <r>
     <x v="36"/>
     <x v="27"/>
-    <n v="142"/>
+    <x v="27"/>
   </r>
   <r>
     <x v="37"/>
     <x v="11"/>
-    <n v="132"/>
+    <x v="28"/>
   </r>
   <r>
     <x v="38"/>
     <x v="28"/>
-    <n v="150"/>
+    <x v="29"/>
   </r>
   <r>
     <x v="39"/>
     <x v="27"/>
-    <n v="119"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="40"/>
     <x v="15"/>
-    <n v="128"/>
+    <x v="18"/>
   </r>
   <r>
     <x v="41"/>
     <x v="13"/>
-    <n v="145"/>
+    <x v="31"/>
   </r>
   <r>
     <x v="42"/>
     <x v="29"/>
-    <n v="119"/>
+    <x v="30"/>
   </r>
   <r>
     <x v="43"/>
     <x v="11"/>
-    <n v="133"/>
+    <x v="32"/>
   </r>
   <r>
     <x v="44"/>
     <x v="13"/>
-    <n v="151"/>
+    <x v="33"/>
   </r>
   <r>
     <x v="45"/>
     <x v="30"/>
-    <n v="2"/>
+    <x v="34"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ピボットテーブル1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="月">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ピボットテーブル1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="月">
   <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" numFmtId="176" showAll="0">
@@ -1869,10 +1969,10 @@
     <dataField name="合計 : 紹介URL数" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -1884,10 +1984,146 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ピボットテーブル1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" numFmtId="176" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="32">
+        <item x="30"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="19"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="27"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item x="24"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="36">
+        <item x="34"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="25"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="23"/>
+        <item x="28"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="21"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="33"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="合計 : 紹介記事数" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="合計 : 紹介URL数2" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2222,13 +2458,13 @@
   <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="A3:C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="10" width="3.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
@@ -2336,10 +2572,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
+    <col min="17" max="17" width="17.83203125" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" customWidth="1"/>
+    <col min="20" max="20" width="16.83203125" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" customWidth="1"/>
+    <col min="22" max="22" width="16.83203125" customWidth="1"/>
+    <col min="23" max="23" width="17.83203125" customWidth="1"/>
+    <col min="24" max="24" width="16.83203125" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" customWidth="1"/>
+    <col min="26" max="26" width="16.83203125" customWidth="1"/>
+    <col min="27" max="27" width="17.83203125" customWidth="1"/>
+    <col min="28" max="28" width="16.83203125" customWidth="1"/>
+    <col min="29" max="29" width="17.83203125" customWidth="1"/>
+    <col min="30" max="30" width="16.83203125" customWidth="1"/>
+    <col min="31" max="31" width="17.83203125" customWidth="1"/>
+    <col min="32" max="32" width="16.83203125" customWidth="1"/>
+    <col min="33" max="33" width="17.83203125" customWidth="1"/>
+    <col min="34" max="34" width="16.83203125" customWidth="1"/>
+    <col min="35" max="35" width="17.83203125" customWidth="1"/>
+    <col min="36" max="36" width="16.83203125" customWidth="1"/>
+    <col min="37" max="37" width="17.83203125" customWidth="1"/>
+    <col min="38" max="38" width="16.83203125" customWidth="1"/>
+    <col min="39" max="39" width="17.83203125" customWidth="1"/>
+    <col min="40" max="40" width="16.83203125" customWidth="1"/>
+    <col min="41" max="41" width="17.83203125" customWidth="1"/>
+    <col min="42" max="42" width="16.83203125" customWidth="1"/>
+    <col min="43" max="43" width="17.83203125" customWidth="1"/>
+    <col min="44" max="44" width="16.83203125" customWidth="1"/>
+    <col min="45" max="45" width="17.83203125" customWidth="1"/>
+    <col min="46" max="46" width="16.83203125" customWidth="1"/>
+    <col min="47" max="47" width="17.83203125" customWidth="1"/>
+    <col min="48" max="48" width="16.83203125" customWidth="1"/>
+    <col min="49" max="49" width="17.83203125" customWidth="1"/>
+    <col min="50" max="50" width="16.83203125" customWidth="1"/>
+    <col min="51" max="51" width="17.83203125" customWidth="1"/>
+    <col min="52" max="52" width="16.83203125" customWidth="1"/>
+    <col min="53" max="53" width="17.83203125" customWidth="1"/>
+    <col min="54" max="54" width="16.83203125" customWidth="1"/>
+    <col min="55" max="55" width="17.83203125" customWidth="1"/>
+    <col min="56" max="56" width="16.83203125" customWidth="1"/>
+    <col min="57" max="57" width="17.83203125" customWidth="1"/>
+    <col min="58" max="58" width="16.83203125" customWidth="1"/>
+    <col min="59" max="59" width="17.83203125" customWidth="1"/>
+    <col min="60" max="60" width="16.83203125" customWidth="1"/>
+    <col min="61" max="61" width="17.83203125" customWidth="1"/>
+    <col min="62" max="62" width="16.83203125" customWidth="1"/>
+    <col min="63" max="63" width="17.83203125" customWidth="1"/>
+    <col min="64" max="64" width="23.5" customWidth="1"/>
+    <col min="65" max="65" width="24.5" customWidth="1"/>
+    <col min="66" max="66" width="7.1640625" customWidth="1"/>
+    <col min="67" max="67" width="6.6640625" customWidth="1"/>
+    <col min="68" max="68" width="7.1640625" customWidth="1"/>
+    <col min="69" max="69" width="6.6640625" customWidth="1"/>
+    <col min="70" max="70" width="7.1640625" customWidth="1"/>
+    <col min="71" max="71" width="6.6640625" customWidth="1"/>
+    <col min="72" max="72" width="7.1640625" customWidth="1"/>
+    <col min="73" max="73" width="6.6640625" customWidth="1"/>
+    <col min="74" max="74" width="7.1640625" customWidth="1"/>
+    <col min="75" max="75" width="6.6640625" customWidth="1"/>
+    <col min="76" max="76" width="7.1640625" customWidth="1"/>
+    <col min="77" max="77" width="6.6640625" customWidth="1"/>
+    <col min="78" max="78" width="7.1640625" customWidth="1"/>
+    <col min="79" max="79" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>914</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1127</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1270</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
+        <v>838</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4149</v>
+      </c>
+      <c r="C9" s="8">
+        <v>4860</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="A3:C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2858,10 +3267,10 @@
         <v>41913</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2877,12 +3286,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="M33:N34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3128,10 +3537,10 @@
         <v>41913</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
